--- a/training/output/Resnet34_ViT/W/W3_W1.xlsx
+++ b/training/output/Resnet34_ViT/W/W3_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.365</v>
+        <v>0.480625</v>
       </c>
       <c r="B2" t="n">
-        <v>3.276466789245605</v>
+        <v>2.710524499416351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7541666666666668</v>
+        <v>0.8239583333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.465370321273804</v>
+        <v>1.98951917886734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8466666666666667</v>
+        <v>0.9220833333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2.173170790672302</v>
+        <v>1.67584615945816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.9420833333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>1.949954609870911</v>
+        <v>1.49939301609993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8991666666666667</v>
+        <v>0.9320833333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.824174084663391</v>
+        <v>1.326455920934677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8941666666666667</v>
+        <v>0.9191666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1.682682542800903</v>
+        <v>1.255273014307022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9016666666666667</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.656887078285217</v>
+        <v>1.179665327072144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9016666666666667</v>
+        <v>0.926875</v>
       </c>
       <c r="B9" t="n">
-        <v>1.677260322570801</v>
+        <v>1.142121136188507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.9293750000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>1.594713225364685</v>
+        <v>1.113729059696198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9116666666666667</v>
+        <v>0.9293750000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>1.562040362358093</v>
+        <v>1.060354351997375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.954375</v>
       </c>
       <c r="B12" t="n">
-        <v>1.560355968475342</v>
+        <v>1.014465004205704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.944375</v>
       </c>
       <c r="B13" t="n">
-        <v>1.525617394447327</v>
+        <v>1.033603131771088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9016666666666667</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1.529207549095154</v>
+        <v>1.005781218409538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.934375</v>
       </c>
       <c r="B15" t="n">
-        <v>1.519516324996948</v>
+        <v>0.9844682067632675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9041666666666667</v>
+        <v>0.9141666666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>1.506303300857544</v>
+        <v>0.9624465107917786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.512147221565247</v>
+        <v>0.9374930411577225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.954375</v>
       </c>
       <c r="B18" t="n">
-        <v>1.500422058105469</v>
+        <v>0.9197251349687576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.9295833333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.485615744590759</v>
+        <v>0.9196698665618896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.468775300979614</v>
+        <v>0.9172601252794266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>1.469983992576599</v>
+        <v>0.9156763702630997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.464951481819153</v>
+        <v>0.8911997526884079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.951875</v>
       </c>
       <c r="B23" t="n">
-        <v>1.441847634315491</v>
+        <v>0.9062653034925461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.9520833333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.454781255722046</v>
+        <v>0.8920701593160629</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.452791628837586</v>
+        <v>0.8812123090028763</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.449969563484192</v>
+        <v>0.8791795372962952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.936875</v>
       </c>
       <c r="B27" t="n">
-        <v>1.457032103538513</v>
+        <v>0.8771874308586121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9193750000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>1.442779636383057</v>
+        <v>0.8580581992864609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.944375</v>
       </c>
       <c r="B29" t="n">
-        <v>1.446108136177063</v>
+        <v>0.8498246371746063</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.434162883758545</v>
+        <v>0.8527132570743561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.9545833333333335</v>
       </c>
       <c r="B31" t="n">
-        <v>1.44387065410614</v>
+        <v>0.8548483401536942</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="B32" t="n">
-        <v>1.43634913444519</v>
+        <v>0.8531017005443573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.946875</v>
       </c>
       <c r="B33" t="n">
-        <v>1.429079928398132</v>
+        <v>0.8345332443714142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>1.42078540802002</v>
+        <v>0.8466546982526779</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B35" t="n">
-        <v>1.421024117469788</v>
+        <v>0.8155509531497955</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9364583333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.418093709945679</v>
+        <v>0.8230459690093994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.93125</v>
       </c>
       <c r="B37" t="n">
-        <v>1.419740452766418</v>
+        <v>0.8178896605968475</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9414583333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.42718542098999</v>
+        <v>0.8121981918811798</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9060416666666665</v>
       </c>
       <c r="B39" t="n">
-        <v>1.422781925201416</v>
+        <v>0.8348314464092255</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9414583333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.423264145851135</v>
+        <v>0.8599713891744614</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9139583333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.432136840820313</v>
+        <v>0.8158619850873947</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9389583333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>1.41648030757904</v>
+        <v>0.806495264172554</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9339583333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.416511130332947</v>
+        <v>0.808977022767067</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9314583333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>1.42075140953064</v>
+        <v>0.7918118089437485</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9314583333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.414986162185669</v>
+        <v>0.7891895473003387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>1.414940390586853</v>
+        <v>0.8499867171049118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.408321971893311</v>
+        <v>0.8086024522781372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>1.43269935131073</v>
+        <v>0.7975662499666214</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>1.434169082641602</v>
+        <v>0.7917005121707916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9314583333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.425287566184998</v>
+        <v>0.7952974885702133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.944375</v>
       </c>
       <c r="B51" t="n">
-        <v>1.414516677856445</v>
+        <v>0.8106130063533783</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.949375</v>
       </c>
       <c r="B52" t="n">
-        <v>1.424844980239868</v>
+        <v>0.8135222643613815</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9364583333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.443872213363647</v>
+        <v>0.7789644449949265</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.422960338592529</v>
+        <v>0.7879282534122467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>1.414065990447998</v>
+        <v>0.7815040946006775</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>1.419707608222961</v>
+        <v>0.7780337482690811</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.951875</v>
       </c>
       <c r="B57" t="n">
-        <v>1.425379910469055</v>
+        <v>0.7777192294597626</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.951875</v>
       </c>
       <c r="B58" t="n">
-        <v>1.422918844223023</v>
+        <v>0.7712646722793579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>1.4176309633255</v>
+        <v>0.7812634706497192</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.949375</v>
       </c>
       <c r="B60" t="n">
-        <v>1.407535285949707</v>
+        <v>0.7689019292593002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1.413261518478394</v>
+        <v>0.8091112822294235</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.954375</v>
       </c>
       <c r="B62" t="n">
-        <v>1.421945152282715</v>
+        <v>0.7808434516191483</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B63" t="n">
-        <v>1.424812393188477</v>
+        <v>0.7910658866167068</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.954375</v>
       </c>
       <c r="B64" t="n">
-        <v>1.410479621887207</v>
+        <v>0.7855997681617737</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.409318571090698</v>
+        <v>0.7691294252872467</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9414583333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.40613823890686</v>
+        <v>0.776243269443512</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B67" t="n">
-        <v>1.415891265869141</v>
+        <v>0.7794967889785767</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9389583333333335</v>
       </c>
       <c r="B68" t="n">
-        <v>1.405312466621399</v>
+        <v>0.7762013524770737</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>1.405402359962463</v>
+        <v>0.7734873294830322</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.401062231063843</v>
+        <v>0.7734769284725189</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9208333333333333</v>
+        <v>0.9289583333333333</v>
       </c>
       <c r="B71" t="n">
-        <v>1.400876793861389</v>
+        <v>0.7662849277257919</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.406052694320679</v>
+        <v>0.7675454765558243</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>1.428091740608215</v>
+        <v>0.7783780544996262</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.423976807594299</v>
+        <v>0.7801826745271683</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9389583333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>1.419269123077393</v>
+        <v>0.7756712436676025</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.401871728897095</v>
+        <v>0.7793356031179428</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.408878035545349</v>
+        <v>0.7558386325836182</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>1.402206921577454</v>
+        <v>0.7739104628562927</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>1.40485466003418</v>
+        <v>0.7538304775953293</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.9364583333333333</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401837086677551</v>
+        <v>0.7652087360620499</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.400065445899963</v>
+        <v>0.7725308239459991</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402140197753906</v>
+        <v>0.7532928436994553</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.406877675056458</v>
+        <v>0.753539577126503</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.408620595932007</v>
+        <v>0.7514291107654572</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40392324924469</v>
+        <v>0.7600750327110291</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.435704827308655</v>
+        <v>0.7500002980232239</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.410842342376709</v>
+        <v>0.773612767457962</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.403462796211243</v>
+        <v>0.7557221949100494</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.951875</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401213574409485</v>
+        <v>0.7673268020153046</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>1.400296716690064</v>
+        <v>0.7703687250614166</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401169414520264</v>
+        <v>0.7529280036687851</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.401376299858093</v>
+        <v>0.7541432231664658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B93" t="n">
-        <v>1.402098269462585</v>
+        <v>0.7499190121889114</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B94" t="n">
-        <v>1.401250901222229</v>
+        <v>0.7555773705244064</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397837700843811</v>
+        <v>0.7441881448030472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B96" t="n">
-        <v>1.401088118553162</v>
+        <v>0.7455314546823502</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.399245686531067</v>
+        <v>0.7458109557628632</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B98" t="n">
-        <v>1.398620314598084</v>
+        <v>0.7522262185811996</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.398170576095581</v>
+        <v>0.7453357726335526</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9464583333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.419005017280579</v>
+        <v>0.7640570402145386</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>1.43328905582428</v>
+        <v>0.7418693751096725</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.740449532866478</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7458201050758362</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7525581270456314</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7520094960927963</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7416348904371262</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7414550930261612</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7639947980642319</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7438620179891586</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.741212472319603</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7496434301137924</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7505093365907669</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7392093986272812</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7338636666536331</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7492068856954575</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7556844800710678</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7364864498376846</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.734483614563942</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7514745146036148</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7413012385368347</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7357401102781296</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7403081953525543</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7373741567134857</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7498999387025833</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7548249363899231</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7380773723125458</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7313850373029709</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7453797608613968</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7486404180526733</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7530699670314789</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.738275945186615</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7382751107215881</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7306344956159592</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7352877408266068</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7384748607873917</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7344497442245483</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9441666666666667</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7561970055103302</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7499685883522034</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7323070764541626</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.749587208032608</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7353250086307526</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7386451065540314</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9439583333333333</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7378447651863098</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7451902478933334</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.72956782579422</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7489945292472839</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7376057356595993</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7302355468273163</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7498612999916077</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7347101420164108</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7292012423276901</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7345195412635803</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7513519674539566</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7264093011617661</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7352433502674103</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7366480082273483</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.72902812063694</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7359993010759354</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7462223917245865</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7374991923570633</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7281406372785568</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7307244837284088</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.732329323887825</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7409916073083878</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7383335530757904</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7404733151197433</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7265203893184662</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.730228528380394</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7305164337158203</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7380818426609039</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7306955605745316</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7249739468097687</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7310193479061127</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7289994955062866</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7296570390462875</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7240269333124161</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7386676520109177</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9468749999999999</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7304012179374695</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.732726126909256</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7335335165262222</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7419419288635254</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7260931581258774</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7265423387289047</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7322919219732285</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7303780317306519</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7255169898271561</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7261556833982468</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7329129725694656</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7287378013134003</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7400002628564835</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9389583333333333</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7203883081674576</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.720573291182518</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7250654697418213</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7364895641803741</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9439583333333333</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7290768772363663</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7242134660482407</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7231804579496384</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9364583333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7327015399932861</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9414583333333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7244899570941925</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7232179790735245</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9439583333333333</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7210005968809128</v>
       </c>
     </row>
   </sheetData>
